--- a/data/trans_camb/P35_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P35_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,3</t>
+          <t>-3,83</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,89</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>-4,98</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-3,47</t>
+          <t>-1,08</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-1,8</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-1,13</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-2,81</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-1,45</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-2,99</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-1,27</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 5,01</t>
+          <t>-6,36; 4,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 4,57</t>
+          <t>-9,33; 1,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,26; -1,8</t>
+          <t>-7,69; 4,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 0,75</t>
+          <t>-11,01; -1,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 0,52</t>
+          <t>-4,03; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 2,99</t>
+          <t>-5,07; 0,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 1,93</t>
+          <t>-4,86; 0,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 1,52</t>
+          <t>-4,71; 1,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,9; -1,03</t>
+          <t>-5,29; 0,0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-5,72; 0,0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-4,35; 1,77</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-6,04; -0,23</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-5,05; 1,92</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-5,94; -1,0</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-3,78; -0,39</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-12,79%</t>
+          <t>-11,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-49,34%</t>
+          <t>-61,63%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-88,15%</t>
+          <t>-19,89%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-62,38%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-64,54%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-32,08%</t>
+          <t>-59,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-27,37%</t>
+          <t>-64,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-54,54%</t>
+          <t>-57,49%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-73,24%</t>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-25,5%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-63,25%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-32,59%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -791,17 +929,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-73,58; 140,97</t>
+          <t>-70,81; 179,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-93,35; 254,97</t>
+          <t>-100,0; 92,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 16,8</t>
+          <t>-79,81; 157,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -821,17 +959,47 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-72,07; 81,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-89,05; 93,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -15,77</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-66,69; 70,43</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-91,26; 13,09</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-82,02; 75,06</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-7,72</t>
+          <t>-7,39</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,23</t>
+          <t>-6,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-10,67</t>
+          <t>-8,13</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-3,44</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-3,35</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-6,3</t>
+          <t>-2,21</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,65</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-3,47</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-3,36</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-3,71</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-1,17</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,37</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,24; -0,68</t>
+          <t>-18,79; -0,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,87; 0,19</t>
+          <t>-17,66; 0,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,8; -4,25</t>
+          <t>-19,85; -1,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 5,28</t>
+          <t>-5,62; 5,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 1,91</t>
+          <t>-3,88; 7,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 0,5</t>
+          <t>-2,21; 4,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 0,54</t>
+          <t>-3,36; 2,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 0,32</t>
+          <t>-2,1; 5,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,68; -2,46</t>
+          <t>-5,7; 0,49</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-0,91; 2,97</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-9,69; 0,41</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-9,81; 0,67</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-9,94; 0,23</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-4,36; 2,05</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 4,31</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-55,12%</t>
+          <t>-54,32%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-44,43%</t>
+          <t>-44,13%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-76,14%</t>
+          <t>-59,76%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>62,4%</t>
+          <t>-0,97%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-16,28%</t>
+          <t>62,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-74,21%</t>
+          <t>39,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-41,6%</t>
+          <t>-23,68%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-40,49%</t>
+          <t>51,57%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-76,25%</t>
+          <t>-65,51%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>128,06%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-42,21%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-40,9%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-45,18%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-25,99%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>69,68%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-81,43; -4,55</t>
+          <t>-82,89; -9,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-77,95; 7,54</t>
+          <t>-78,11; 9,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-95,81; -22,01</t>
+          <t>-87,7; -10,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-65,63; 912,62</t>
+          <t>-71,25; 192,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-89,28; 300,61</t>
+          <t>-78,82; 971,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
+          <t>-71,54; 765,59</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-90,43; 440,53</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-71,3; 799,02</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 112,2</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-76,01; 15,99</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-73,81; 10,96</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-95,25; -30,56</t>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-73,68; 14,1</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-73,33; 15,83</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-78,08; 7,86</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-73,64; 74,04</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-66,85; 583,85</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-2,56</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,71</t>
+          <t>-4,64</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>-4,02</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-2,57</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-0,65</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
           <t>-0,45</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-0,35</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-1,17</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-0,49</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-1,38</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-1,5</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-2,16</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-1,84</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-0,56</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 6,38</t>
+          <t>-9,99; 4,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 5,16</t>
+          <t>-9,87; 4,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,6; 1,35</t>
+          <t>-11,41; 2,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 2,32</t>
+          <t>-8,83; 1,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 2,21</t>
+          <t>-7,79; 2,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 1,65</t>
+          <t>-4,18; 2,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 3,01</t>
+          <t>-3,59; 2,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 2,39</t>
+          <t>-2,97; 3,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 0,54</t>
+          <t>-3,41; 3,56</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-1,42; 4,83</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-5,23; 2,13</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-5,74; 2,09</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-6,46; 1,25</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-4,88; 1,25</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-3,82; 2,54</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,43%</t>
+          <t>-13,89%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-8,36%</t>
+          <t>-17,17%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-34,87%</t>
+          <t>-31,2%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-12,54%</t>
+          <t>-39,28%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-9,72%</t>
+          <t>-29,27%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-32,49%</t>
+          <t>-16,95%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-5,75%</t>
+          <t>-11,84%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-9,67%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-32,08%</t>
+          <t>1,33%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>69,96%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-14,9%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-16,22%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-23,4%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-26,09%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-9,65%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-44,88; 62,58</t>
+          <t>-49,65; 41,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-44,8; 53,36</t>
+          <t>-50,24; 41,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-65,99; 16,83</t>
+          <t>-60,85; 21,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-68,22; 110,8</t>
+          <t>-70,32; 21,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-66,35; 119,15</t>
+          <t>-68,58; 45,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-77,57; 108,45</t>
+          <t>-70,56; 89,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-40,83; 43,67</t>
+          <t>-63,19; 95,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-41,78; 37,64</t>
+          <t>-56,12; 171,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-59,78; 13,28</t>
+          <t>-60,56; 139,78</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-45,13; 354,14</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-44,11; 31,75</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-46,44; 28,48</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-52,57; 18,64</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-57,67; 24,06</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-51,65; 59,37</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,03</t>
+          <t>-2,84</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,23</t>
+          <t>-3,33</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-12,14</t>
+          <t>-9,14</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,47</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-5,1</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,41</t>
+          <t>-3,42</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>-3,12</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-8,02</t>
+          <t>-2,09</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-0,18</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-2,37</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-3,27</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-5,88</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2,25</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 4,6</t>
+          <t>-10,09; 4,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,29; 4,44</t>
+          <t>-10,78; 4,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-19,35; -4,2</t>
+          <t>-17,39; -2,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 2,07</t>
+          <t>-5,59; 9,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 0,2</t>
+          <t>-2,76; 12,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,39; -1,23</t>
+          <t>-6,15; 1,92</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 1,94</t>
+          <t>-7,46; 0,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 1,24</t>
+          <t>-7,48; 0,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-12,13; -3,35</t>
+          <t>-5,85; 0,89</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-3,61; 3,24</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-6,45; 1,83</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-7,76; 0,97</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-10,03; -1,95</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-4,05; 4,89</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-1,81; 6,25</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-11,56%</t>
+          <t>-10,92%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-12,33%</t>
+          <t>-12,81%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-46,32%</t>
+          <t>-35,14%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-23,74%</t>
+          <t>11,41%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-38,86%</t>
+          <t>33,56%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-57,06%</t>
+          <t>-23,2%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-13,98%</t>
+          <t>-38,49%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-18,23%</t>
+          <t>-35,14%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-46,49%</t>
+          <t>-36,34%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-4,59%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-13,8%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-19,01%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-34,18%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1,42%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>24,43%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-33,41; 20,97</t>
+          <t>-33,28; 23,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-35,1; 20,15</t>
+          <t>-36,08; 20,73</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-66,47; -20,3</t>
+          <t>-57,73; -10,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-55,58; 32,76</t>
+          <t>-27,61; 66,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-66,76; 6,68</t>
+          <t>-16,53; 112,59</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-81,52; -11,17</t>
+          <t>-53,47; 32,52</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-33,07; 13,61</t>
+          <t>-66,08; 7,51</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-37,25; 8,25</t>
+          <t>-65,8; 10,14</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-63,36; -22,5</t>
+          <t>-76,82; 28,03</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-67,05; 156,5</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-33,34; 12,77</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-38,88; 6,99</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-52,22; -11,69</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-32,32; 50,39</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-17,72; 84,11</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-9,03</t>
+          <t>-6,9</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>-6,89</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
+          <t>-4,41</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1,35</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-2,0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2,49</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-3,76</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>2,74</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
           <t>-2,22</t>
         </is>
       </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-4,1</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>0,79</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>-0,06</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-6,82</t>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>-5,31</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-0,56</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 8,41</t>
+          <t>-9,2; 9,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 11,15</t>
+          <t>-7,49; 10,3</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-18,47; -0,13</t>
+          <t>-16,21; 2,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 6,71</t>
+          <t>-15,41; 1,12</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 2,55</t>
+          <t>-13,22; 4,69</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 0,64</t>
+          <t>-4,12; 6,96</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 5,82</t>
+          <t>-7,04; 3,22</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 5,51</t>
+          <t>-3,79; 8,52</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-12,34; -0,86</t>
+          <t>-10,01; 2,29</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-2,0; 7,99</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-5,61; 5,45</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-5,3; 5,05</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-8,38; 3,29</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-10,41; -0,29</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-5,23; 4,39</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-0,17%</t>
+          <t>-0,92%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-27,02%</t>
+          <t>-20,46%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>-25,66%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-21,95%</t>
+          <t>-18,11%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-40,59%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>-19,95%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-0,3%</t>
+          <t>24,92%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-31,59%</t>
+          <t>-30,06%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>45,6%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>3,06%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-0,61%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-10,23%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-27,19%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-3,78%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-24,35; 30,91</t>
+          <t>-23,42; 31,96</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-18,91; 38,19</t>
+          <t>-19,11; 35,99</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-48,07; 1,31</t>
+          <t>-41,82; 8,23</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-32,4; 91,77</t>
+          <t>-50,14; 5,28</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-56,23; 38,81</t>
+          <t>-45,59; 25,45</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-72,76; 15,81</t>
+          <t>-33,67; 98,91</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-19,3; 31,45</t>
+          <t>-55,05; 50,89</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-22,71; 29,19</t>
+          <t>-30,67; 119,89</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-51,02; -6,55</t>
+          <t>-61,97; 29,09</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-27,44; 195,27</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-21,87; 28,46</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-21,81; 27,53</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-33,6; 17,35</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-46,45; -1,6</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-31,77; 36,94</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>8,03</t>
+          <t>7,64</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>10,76</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>-11,29</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-2,59</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-5,31</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>-2,6</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>-0,77</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>3,24</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0,76</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1,93</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>4,04</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>-5,87</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>0,97</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 13,34</t>
+          <t>-6,72; 14,0</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 18,27</t>
+          <t>-2,06; 19,1</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 12,48</t>
+          <t>-0,52; 21,74</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 3,17</t>
+          <t>-23,8; 0,79</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 1,66</t>
+          <t>-13,84; 8,62</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-10,15; -1,42</t>
+          <t>-5,37; 3,59</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 7,35</t>
+          <t>-7,54; 1,2</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 7,92</t>
+          <t>-6,58; 3,73</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 2,85</t>
+          <t>-6,0; 3,8</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-0,65; 7,61</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-4,52; 5,88</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-3,58; 8,0</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-1,51; 11,04</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-12,17; 0,53</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-4,63; 6,32</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>27,71%</t>
+          <t>26,36%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>37,12%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-14,04%</t>
+          <t>-28,4%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-33,3%</t>
+          <t>-6,13%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-68,22%</t>
+          <t>-13,89%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>-32,55%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>-18,88%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-15,82%</t>
+          <t>-11,93%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>131,12%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>4,47%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>11,31%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>23,69%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>-27,81%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>6,77%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-22,25; 56,63</t>
+          <t>-19,84; 59,93</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-12,39; 74,36</t>
+          <t>-6,51; 81,94</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-28,79; 50,14</t>
+          <t>-1,68; 89,53</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-57,87; 64,29</t>
+          <t>-51,11; 2,67</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-67,85; 34,65</t>
+          <t>-37,65; 36,88</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-92,43; -16,37</t>
+          <t>-51,89; 70,89</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-22,85; 51,38</t>
+          <t>-67,79; 24,13</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 57,67</t>
+          <t>-63,89; 69,35</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-41,8; 19,03</t>
+          <t>-67,25; 94,23</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-37,48; 623,48</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-23,61; 39,25</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-19,15; 54,92</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-7,86; 73,8</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-50,34; 2,72</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-27,56; 55,53</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-6,79</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-4,22</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
+          <t>-0,41</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
           <t>-1,88</t>
         </is>
       </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>-3,13</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>-1,1</t>
-        </is>
-      </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-4,81</t>
+          <t>-1,47</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1,24</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-1,27</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-1,62</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>-1,8</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>-2,75</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>0,4</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 1,7</t>
+          <t>-5,1; 1,31</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 2,38</t>
+          <t>-4,53; 1,84</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-10,0; -3,42</t>
+          <t>-6,85; 0,05</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 0,96</t>
+          <t>-7,72; -0,9</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,41; -0,42</t>
+          <t>-3,41; 2,91</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,78; -1,44</t>
+          <t>-2,45; 1,0</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 0,65</t>
+          <t>-3,52; -0,39</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 0,6</t>
+          <t>-2,33; 1,21</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-6,77; -2,97</t>
+          <t>-3,13; 0,32</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-0,24; 2,92</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-3,11; 0,8</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-3,57; 0,16</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-3,67; 0,27</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-4,53; -0,87</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-1,33; 2,17</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-7,89%</t>
+          <t>-9,26%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-4,2%</t>
+          <t>-6,58%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-33,55%</t>
+          <t>-15,56%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-10,48%</t>
+          <t>-24,48%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-31,29%</t>
+          <t>-3,07%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-52,03%</t>
+          <t>-11,34%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-8,48%</t>
+          <t>-30,87%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-10,68%</t>
+          <t>-8,19%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-37,12%</t>
+          <t>-26,27%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>42,85%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-9,73%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-12,4%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>-13,76%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>-24,34%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>4,87%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-22,74; 9,21</t>
+          <t>-22,83; 7,07</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-21,14; 13,21</t>
+          <t>-20,21; 9,88</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-45,75; -18,51</t>
+          <t>-30,62; 0,05</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-33,31; 18,17</t>
+          <t>-40,3; -5,31</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-48,86; -6,99</t>
+          <t>-22,26; 23,81</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-68,25; -29,39</t>
+          <t>-34,14; 20,8</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-22,56; 5,47</t>
+          <t>-50,28; -7,61</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-23,18; 5,05</t>
+          <t>-33,53; 23,72</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-48,11; -24,59</t>
+          <t>-49,23; 8,21</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-7,15; 131,89</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-21,55; 6,87</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-25,13; 1,37</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-26,44; 3,04</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-36,94; -8,77</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-14,81; 29,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
